--- a/RSC_project_chart.xlsx
+++ b/RSC_project_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstev\Desktop\react-shopping-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6AF8930-F43B-4B27-8EF7-0DC48D6E8F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF24865-DF94-467D-ADC1-55419037DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="852" windowWidth="17652" windowHeight="9756" xr2:uid="{BBAA81AB-69EF-4724-A60C-1BF763F6D83B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBAA81AB-69EF-4724-A60C-1BF763F6D83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Feature</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Create MongoDB Atlas i publikuje Heroku app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature 1 </t>
+  </si>
+  <si>
+    <t>Postavka i vođenje projekta</t>
   </si>
 </sst>
 </file>
@@ -161,12 +167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,8 +193,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,31 +516,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8668069A-5244-4B99-94FC-ACBBD8168A3E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -530,215 +552,229 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <f>SUM(D2:D15)</f>
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <f>SUM(D2:D16)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <f>G3*G4</f>
-        <v>1050</v>
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <f>G4*G5</f>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
         <v>3</v>
       </c>
     </row>
